--- a/Data/Ups/UPS_classes.xlsx
+++ b/Data/Ups/UPS_classes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t>Cod</t>
   </si>
@@ -193,7 +193,7 @@
     <t>Чистая синусоида (SIN)</t>
   </si>
   <si>
-    <t>Вот у меня как слышавшего слова off-line, line-interactive, модульные и проч - сразу вопрос - это где?</t>
+    <t>Вот у меня как слышавшего слова off-line, line-interactive, модульные и проч - сразу вопрос - это где? И как это обозначть одним словом на уровне subtype</t>
   </si>
 </sst>
 </file>
@@ -537,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,7 +552,7 @@
     <col min="5" max="5" width="104.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,7 +569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -579,8 +579,11 @@
       <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -591,7 +594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -602,7 +605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -616,7 +619,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -630,7 +633,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -644,7 +647,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -658,7 +661,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -669,7 +672,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -683,7 +686,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -697,7 +700,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -711,7 +714,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -725,7 +728,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -739,7 +742,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -750,7 +753,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
       </c>
